--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-contact-description.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-contact-description.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T08:24:05+00:00</t>
+    <t>2024-04-10T09:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-contact-description.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-contact-description.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:05:12+00:00</t>
+    <t>2024-04-12T12:13:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-contact-description.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-contact-description.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T12:13:15+00:00</t>
+    <t>2024-04-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
